--- a/1_4_1_PatternComparisonTask/prac_conditions.xlsx
+++ b/1_4_1_PatternComparisonTask/prac_conditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\严老师Lab\认知工具箱\Cognition新增\pattern-comparison-task-master\pattern-comparison-task-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chen-nanwu/Desktop/CEST_1128/1_4_1_PatternComparisonTask/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466E79E3-28FC-44B5-9932-F17A6279ACB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FDC0BC-71E6-744F-823C-DADD75711135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{21D770EB-AB39-435B-8E62-97D1A0E63F6A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{21D770EB-AB39-435B-8E62-97D1A0E63F6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,51 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>same</t>
   </si>
   <si>
     <t>different</t>
-  </si>
-  <si>
-    <t>left</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>images/same/same5.jpg</t>
-  </si>
-  <si>
-    <t>images/same/same6.jpg</t>
-  </si>
-  <si>
-    <t>images/different/diff9.jpg</t>
-  </si>
-  <si>
-    <t>images/different/diff10.jpg</t>
-  </si>
-  <si>
-    <t>images/different/diff7.jpg</t>
-  </si>
-  <si>
-    <t>images/different/diff8.jpg</t>
-  </si>
-  <si>
-    <t>prac_picture1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prac_picture2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>prac_corrAns</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>prac_trial</t>
+    <t>prac_cond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -77,7 +53,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,85 +404,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465DBE86-D77F-48FE-9502-8F0B735F3180}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" width="26" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
